--- a/Data/Tags/size.xlsx
+++ b/Data/Tags/size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Clusterwise_DD_Italy/Data/Tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CDC7E-CA52-554A-A1E8-981BC921067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F132CC-0B8C-264B-8395-322578CF1253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{3D1FB599-FB66-F24F-B9DC-D1B7654463B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>cl1</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>size_employees</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
   </si>
 </sst>
 </file>
@@ -444,7 +459,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -459,6 +474,9 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -467,7 +485,9 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
@@ -477,7 +497,9 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
@@ -487,7 +509,9 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
@@ -497,6 +521,9 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
